--- a/biology/Botanique/Laelia_autumnalis/Laelia_autumnalis.xlsx
+++ b/biology/Botanique/Laelia_autumnalis/Laelia_autumnalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laelia autumnalis est une espèce d'orchidées du genre Laelia originaire d'Amérique centrale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laelia autumnalis est une espèce d'orchidées du genre Laelia originaire d'Amérique centrale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette orchidée forme des pseudobulbes ovoïdes portant à leurs sommet 2 à 3 feuilles épaisses lancéolées[1]. Les hampes florales sortent au sommet de nouveaux pseudobulbes, entre les feuilles de celui-ci. Elles font 60 à 90 cm de long et portent des fleurs parfumées faisant 7,5 à 10 cm.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette orchidée forme des pseudobulbes ovoïdes portant à leurs sommet 2 à 3 feuilles épaisses lancéolées. Les hampes florales sortent au sommet de nouveaux pseudobulbes, entre les feuilles de celui-ci. Elles font 60 à 90 cm de long et portent des fleurs parfumées faisant 7,5 à 10 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L. autumnalis est originaire des montagnes du centre au sud du Mexique, entre 1 500 et 2 600 m d'altitude. On peut la trouver soit en épiphyte sur des chênes et des broussailles, ou en lithophyte sur des rochers couverts de mousses[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L. autumnalis est originaire des montagnes du centre au sud du Mexique, entre 1 500 et 2 600 m d'altitude. On peut la trouver soit en épiphyte sur des chênes et des broussailles, ou en lithophyte sur des rochers couverts de mousses.
 </t>
         </is>
       </c>
